--- a/NewAWS Database.xlsx
+++ b/NewAWS Database.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11968\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5430" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15600" windowHeight="5370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="PPM" sheetId="2" r:id="rId3"/>
     <sheet name="Complaint" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="269">
   <si>
     <t>HOSPITAL</t>
   </si>
@@ -720,12 +715,126 @@
   </si>
   <si>
     <t>QUERYUPDATE</t>
+  </si>
+  <si>
+    <t>dateRequested</t>
+  </si>
+  <si>
+    <t>timeRequested</t>
+  </si>
+  <si>
+    <t>hospital,</t>
+  </si>
+  <si>
+    <t>wrNo,</t>
+  </si>
+  <si>
+    <t>dateRequested,</t>
+  </si>
+  <si>
+    <t>timeRequested,</t>
+  </si>
+  <si>
+    <t>targetdate,</t>
+  </si>
+  <si>
+    <t>ageing,</t>
+  </si>
+  <si>
+    <t>status,</t>
+  </si>
+  <si>
+    <t>type,</t>
+  </si>
+  <si>
+    <t>assetNo,</t>
+  </si>
+  <si>
+    <t>assetDesc,</t>
+  </si>
+  <si>
+    <t>workgroup,</t>
+  </si>
+  <si>
+    <t>details,</t>
+  </si>
+  <si>
+    <t>taskDesc,</t>
+  </si>
+  <si>
+    <t>startDatetime,</t>
+  </si>
+  <si>
+    <t>endDatetime,</t>
+  </si>
+  <si>
+    <t>actionTaken,</t>
+  </si>
+  <si>
+    <t>actualclosedDate,</t>
+  </si>
+  <si>
+    <t>justificationOutstanding,</t>
+  </si>
+  <si>
+    <t>$v1</t>
+  </si>
+  <si>
+    <t>$v2</t>
+  </si>
+  <si>
+    <t>$v3</t>
+  </si>
+  <si>
+    <t>$v4</t>
+  </si>
+  <si>
+    <t>$v5</t>
+  </si>
+  <si>
+    <t>$v6</t>
+  </si>
+  <si>
+    <t>$v7</t>
+  </si>
+  <si>
+    <t>$v8</t>
+  </si>
+  <si>
+    <t>$v9</t>
+  </si>
+  <si>
+    <t>$v10</t>
+  </si>
+  <si>
+    <t>$v11</t>
+  </si>
+  <si>
+    <t>$v12</t>
+  </si>
+  <si>
+    <t>$v13</t>
+  </si>
+  <si>
+    <t>$v14</t>
+  </si>
+  <si>
+    <t>$v15</t>
+  </si>
+  <si>
+    <t>$v16</t>
+  </si>
+  <si>
+    <t>$v17</t>
+  </si>
+  <si>
+    <t>$v18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -771,7 +880,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1068,7 +1187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1120,7 +1239,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1314,7 +1433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1535,58 +1654,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="OPEN">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="OPEN">
       <formula>NOT(ISERROR(SEARCH("OPEN",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="CLOSED">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="CLOSED">
       <formula>NOT(ISERROR(SEARCH("CLOSED",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59932:B1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59932:B1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="OPEN">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="OPEN">
       <formula>NOT(ISERROR(SEARCH("OPEN",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="CLOSED">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="CLOSED">
       <formula>NOT(ISERROR(SEARCH("CLOSED",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="OPEN">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="OPEN">
       <formula>NOT(ISERROR(SEARCH("OPEN",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="CLOSED">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="CLOSED">
       <formula>NOT(ISERROR(SEARCH("CLOSED",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1597,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1732,7 @@
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>228</v>
       </c>
@@ -1627,7 +1746,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1668,11 +1787,14 @@
         <v>'$hospital',</v>
       </c>
       <c r="L2" t="str">
-        <f>B2&amp;" = "&amp;"'"&amp;F2&amp;"'"&amp;","</f>
-        <v>hospital = '$hospital',</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <f>B2&amp;" = "&amp;"'"&amp;M2&amp;"'"&amp;","</f>
+        <v>hospital = '$v1',</v>
+      </c>
+      <c r="M2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1683,11 +1805,11 @@
         <v>212</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D19" si="0">B3&amp;" "&amp;C3&amp;","</f>
+        <f t="shared" ref="D3:D17" si="0">B3&amp;" "&amp;C3&amp;","</f>
         <v>wrNo VARCHAR(32),</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E19" si="1">B3&amp;","</f>
+        <f t="shared" ref="E3:E17" si="1">B3&amp;","</f>
         <v>wrNo,</v>
       </c>
       <c r="F3" t="str">
@@ -1713,11 +1835,14 @@
         <v>'$wrNo',</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L19" si="6">B3&amp;" = "&amp;"'"&amp;F3&amp;"'"&amp;","</f>
-        <v>wrNo = '$wrNo',</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L3:L17" si="6">B3&amp;" = "&amp;"'"&amp;M3&amp;"'"&amp;","</f>
+        <v>wrNo = '$v2',</v>
+      </c>
+      <c r="M3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>218</v>
       </c>
@@ -1759,10 +1884,13 @@
       </c>
       <c r="L4" t="str">
         <f t="shared" si="6"/>
-        <v>datetime = '$datetime',</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>datetime = '$v3',</v>
+      </c>
+      <c r="M4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1804,10 +1932,13 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" si="6"/>
-        <v>targetDate = '$targetDate',</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>targetDate = '$v4',</v>
+      </c>
+      <c r="M5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1849,10 +1980,13 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="6"/>
-        <v>ageing = '$ageing',</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>ageing = '$v5',</v>
+      </c>
+      <c r="M6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1894,10 +2028,13 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="6"/>
-        <v>status = '$status',</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>status = '$v6',</v>
+      </c>
+      <c r="M7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1939,10 +2076,13 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="6"/>
-        <v>requestor = '$requestor',</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>requestor = '$v7',</v>
+      </c>
+      <c r="M8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1984,10 +2124,13 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="6"/>
-        <v>category = '$category',</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>category = '$v8',</v>
+      </c>
+      <c r="M9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2029,10 +2172,13 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" si="6"/>
-        <v>assetNo = '$assetNo',</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>assetNo = '$v9',</v>
+      </c>
+      <c r="M10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2074,10 +2220,13 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="6"/>
-        <v>workgroup = '$workgroup',</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>workgroup = '$v10',</v>
+      </c>
+      <c r="M11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2119,10 +2268,13 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="6"/>
-        <v>details = '$details',</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>details = '$v11',</v>
+      </c>
+      <c r="M12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2164,10 +2316,13 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="6"/>
-        <v>startDatetime = '$startDatetime',</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>startDatetime = '$v12',</v>
+      </c>
+      <c r="M13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2209,10 +2364,13 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="6"/>
-        <v>endDatetime = '$endDatetime',</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>endDatetime = '$v13',</v>
+      </c>
+      <c r="M14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2254,10 +2412,13 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="6"/>
-        <v>actionTaken = '$actionTaken',</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>actionTaken = '$v14',</v>
+      </c>
+      <c r="M15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2299,10 +2460,13 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="6"/>
-        <v>actualclosedDate = '$actualclosedDate',</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>actualclosedDate = '$v15',</v>
+      </c>
+      <c r="M16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2344,15 +2508,18 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="6"/>
-        <v>justificationOutstanding = '$justificationOutstanding',</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>justificationOutstanding = '$v16',</v>
+      </c>
+      <c r="M17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2364,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,16 +2542,17 @@
     <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2395,6 +2563,9 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
@@ -2407,8 +2578,33 @@
         <f>CONCATENATE(F2," ",G2,",")</f>
         <v>hospital VARCHAR(255),</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="str">
+        <f>"$"&amp;K2</f>
+        <v>$hospital</v>
+      </c>
+      <c r="M2" t="str">
+        <f>L2&amp;" ="&amp;" $_POST['"&amp;K2&amp;"'];"</f>
+        <v>$hospital = $_POST['hospital'];</v>
+      </c>
+      <c r="P2" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>"'"&amp;L2&amp;"',"</f>
+        <v>'$hospital',</v>
+      </c>
+      <c r="R2" t="str">
+        <f>K2&amp;" = "&amp;"'"&amp;S2&amp;"'"&amp;","</f>
+        <v>hospital = '$v1',</v>
+      </c>
+      <c r="S2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2420,6 +2616,9 @@
       </c>
       <c r="D3" t="s">
         <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>198</v>
       </c>
       <c r="F3" t="s">
         <v>198</v>
@@ -2431,8 +2630,33 @@
         <f t="shared" ref="H3:H18" si="0">CONCATENATE(F3," ",G3,",")</f>
         <v>wrNo VARCHAR(32),</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L19" si="1">"$"&amp;K3</f>
+        <v>$wrNo</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M19" si="2">L3&amp;" ="&amp;" $_POST['"&amp;K3&amp;"'];"</f>
+        <v>$wrNo = $_POST['wrNo'];</v>
+      </c>
+      <c r="P3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q19" si="3">"'"&amp;L3&amp;"',"</f>
+        <v>'$wrNo',</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R19" si="4">K3&amp;" = "&amp;"'"&amp;S3&amp;"'"&amp;","</f>
+        <v>wrNo = '$v2',</v>
+      </c>
+      <c r="S3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -2444,6 +2668,9 @@
       </c>
       <c r="D4" t="s">
         <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>199</v>
       </c>
       <c r="F4" t="s">
         <v>199</v>
@@ -2455,8 +2682,33 @@
         <f t="shared" si="0"/>
         <v>datetime DATETIME(),</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>$dateRequested</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>$dateRequested = $_POST['dateRequested'];</v>
+      </c>
+      <c r="P4" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="3"/>
+        <v>'$dateRequested',</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="4"/>
+        <v>dateRequested = '$v3',</v>
+      </c>
+      <c r="S4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2465,6 +2717,9 @@
       </c>
       <c r="C5" t="s">
         <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
       </c>
       <c r="F5" t="s">
         <v>200</v>
@@ -2476,8 +2731,33 @@
         <f t="shared" si="0"/>
         <v>targetdate DATE,</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>$timeRequested</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>$timeRequested = $_POST['timeRequested'];</v>
+      </c>
+      <c r="P5" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="3"/>
+        <v>'$timeRequested',</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="4"/>
+        <v>timeRequested = '$v4',</v>
+      </c>
+      <c r="S5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2489,6 +2769,9 @@
       </c>
       <c r="D6" t="s">
         <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>201</v>
       </c>
       <c r="F6" t="s">
         <v>201</v>
@@ -2500,8 +2783,33 @@
         <f t="shared" si="0"/>
         <v>ageing VARCHAR(255),</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>$targetdate</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>$targetdate = $_POST['targetdate'];</v>
+      </c>
+      <c r="P6" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="3"/>
+        <v>'$targetdate',</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="4"/>
+        <v>targetdate = '$v5',</v>
+      </c>
+      <c r="S6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2510,6 +2818,9 @@
       </c>
       <c r="C7" t="s">
         <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -2521,8 +2832,33 @@
         <f t="shared" si="0"/>
         <v>status VARCHAR(16),</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>$ageing</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>$ageing = $_POST['ageing'];</v>
+      </c>
+      <c r="P7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="3"/>
+        <v>'$ageing',</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="4"/>
+        <v>ageing = '$v6',</v>
+      </c>
+      <c r="S7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2534,6 +2870,9 @@
       </c>
       <c r="D8" t="s">
         <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>216</v>
       </c>
       <c r="F8" t="s">
         <v>202</v>
@@ -2545,8 +2884,33 @@
         <f t="shared" si="0"/>
         <v>type VARCHAR(32),</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>$status</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>$status = $_POST['status'];</v>
+      </c>
+      <c r="P8" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="3"/>
+        <v>'$status',</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="4"/>
+        <v>status = '$v7',</v>
+      </c>
+      <c r="S8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2558,6 +2922,9 @@
       </c>
       <c r="D9" t="s">
         <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>217</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -2569,8 +2936,33 @@
         <f t="shared" si="0"/>
         <v>assetNo VARCHAR(32),</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>202</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>$type</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>$type = $_POST['type'];</v>
+      </c>
+      <c r="P9" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="3"/>
+        <v>'$type',</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="4"/>
+        <v>type = '$v8',</v>
+      </c>
+      <c r="S9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2581,6 +2973,9 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
         <v>50</v>
       </c>
       <c r="F10" t="s">
@@ -2593,8 +2988,33 @@
         <f t="shared" si="0"/>
         <v>assetDesc VARCHAR(255),</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>$assetNo</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>$assetNo = $_POST['assetNo'];</v>
+      </c>
+      <c r="P10" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="3"/>
+        <v>'$assetNo',</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="4"/>
+        <v>assetNo = '$v9',</v>
+      </c>
+      <c r="S10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2603,6 +3023,9 @@
       </c>
       <c r="C11" t="s">
         <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>204</v>
       </c>
       <c r="F11" t="s">
         <v>204</v>
@@ -2614,8 +3037,33 @@
         <f t="shared" si="0"/>
         <v>workgroup VARCHAR(32),</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>$assetDesc</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>$assetDesc = $_POST['assetDesc'];</v>
+      </c>
+      <c r="P11" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="3"/>
+        <v>'$assetDesc',</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="4"/>
+        <v>assetDesc = '$v10',</v>
+      </c>
+      <c r="S11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -2627,6 +3075,9 @@
       </c>
       <c r="D12" t="s">
         <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>205</v>
       </c>
       <c r="F12" t="s">
         <v>205</v>
@@ -2638,8 +3089,33 @@
         <f t="shared" si="0"/>
         <v>details VARCHAR(255),</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>204</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>$workgroup</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>$workgroup = $_POST['workgroup'];</v>
+      </c>
+      <c r="P12" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="3"/>
+        <v>'$workgroup',</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="4"/>
+        <v>workgroup = '$v11',</v>
+      </c>
+      <c r="S12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2648,6 +3124,9 @@
       </c>
       <c r="C13" t="s">
         <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>207</v>
       </c>
       <c r="F13" t="s">
         <v>206</v>
@@ -2659,8 +3138,33 @@
         <f t="shared" si="0"/>
         <v>taskDesc VARCHAR(255),</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>$details</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>$details = $_POST['details'];</v>
+      </c>
+      <c r="P13" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="3"/>
+        <v>'$details',</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="4"/>
+        <v>details = '$v12',</v>
+      </c>
+      <c r="S13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -2669,6 +3173,9 @@
       </c>
       <c r="C14" t="s">
         <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>208</v>
       </c>
       <c r="F14" t="s">
         <v>207</v>
@@ -2680,8 +3187,33 @@
         <f t="shared" si="0"/>
         <v>startDatetime DATETIME(),</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>$taskDesc</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>$taskDesc = $_POST['taskDesc'];</v>
+      </c>
+      <c r="P14" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="3"/>
+        <v>'$taskDesc',</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="4"/>
+        <v>taskDesc = '$v13',</v>
+      </c>
+      <c r="S14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2690,6 +3222,9 @@
       </c>
       <c r="C15" t="s">
         <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>184</v>
       </c>
       <c r="F15" t="s">
         <v>208</v>
@@ -2701,8 +3236,33 @@
         <f t="shared" si="0"/>
         <v>endDatetime DATETIME(),</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>207</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>$startDatetime</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>$startDatetime = $_POST['startDatetime'];</v>
+      </c>
+      <c r="P15" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="3"/>
+        <v>'$startDatetime',</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="4"/>
+        <v>startDatetime = '$v14',</v>
+      </c>
+      <c r="S15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2711,6 +3271,9 @@
       </c>
       <c r="C16" t="s">
         <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>209</v>
       </c>
       <c r="F16" t="s">
         <v>184</v>
@@ -2722,8 +3285,33 @@
         <f t="shared" si="0"/>
         <v>actionTaken VARCHAR(255),</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>$endDatetime</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>$endDatetime = $_POST['endDatetime'];</v>
+      </c>
+      <c r="P16" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="3"/>
+        <v>'$endDatetime',</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="4"/>
+        <v>endDatetime = '$v15',</v>
+      </c>
+      <c r="S16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -2732,6 +3320,9 @@
       </c>
       <c r="C17" t="s">
         <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>210</v>
       </c>
       <c r="F17" t="s">
         <v>209</v>
@@ -2743,8 +3334,33 @@
         <f t="shared" si="0"/>
         <v>actualclosedDate DATE(),</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>$actionTaken</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>$actionTaken = $_POST['actionTaken'];</v>
+      </c>
+      <c r="P17" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="3"/>
+        <v>'$actionTaken',</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="4"/>
+        <v>actionTaken = '$v16',</v>
+      </c>
+      <c r="S17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2764,8 +3380,33 @@
         <f t="shared" si="0"/>
         <v>justificationOutstanding VARCHAR(255),</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>209</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>$actualclosedDate</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>$actualclosedDate = $_POST['actualclosedDate'];</v>
+      </c>
+      <c r="P18" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="3"/>
+        <v>'$actualclosedDate',</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="4"/>
+        <v>actualclosedDate = '$v17',</v>
+      </c>
+      <c r="S18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2775,8 +3416,33 @@
       <c r="C19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>210</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>$justificationOutstanding</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>$justificationOutstanding = $_POST['justificationOutstanding'];</v>
+      </c>
+      <c r="P19" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="3"/>
+        <v>'$justificationOutstanding',</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="4"/>
+        <v>justificationOutstanding = '$v18',</v>
+      </c>
+      <c r="S19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -2787,7 +3453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2798,7 +3464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2806,7 +3472,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -2814,7 +3480,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2822,7 +3488,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2830,7 +3496,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -2838,7 +3504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -2846,7 +3512,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2854,7 +3520,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -2862,7 +3528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -2870,7 +3536,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -2878,7 +3544,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -3288,20 +3954,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="OPEN">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="OPEN">
       <formula>NOT(ISERROR(SEARCH("OPEN",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="CLOSED">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="CLOSED">
       <formula>NOT(ISERROR(SEARCH("CLOSED",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C5)))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F18">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3347,7 +4016,7 @@
         <v>212</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D11" si="0">B3&amp;" "&amp;C3&amp;","</f>
+        <f t="shared" ref="D3:D10" si="0">B3&amp;" "&amp;C3&amp;","</f>
         <v>complaintNo VARCHAR(32),</v>
       </c>
     </row>
@@ -3463,18 +4132,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="OPEN">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="OPEN">
       <formula>NOT(ISERROR(SEARCH("OPEN",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="CLOSED">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="CLOSED">
       <formula>NOT(ISERROR(SEARCH("CLOSED",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",A5)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/NewAWS Database.xlsx
+++ b/NewAWS Database.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fm-system\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15600" windowHeight="5370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15600" windowHeight="5370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="PPM" sheetId="2" r:id="rId3"/>
     <sheet name="Complaint" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="270">
   <si>
     <t>HOSPITAL</t>
   </si>
@@ -829,12 +834,15 @@
   </si>
   <si>
     <t>$v18</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -893,16 +901,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -918,6 +916,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1433,7 +1441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1444,7 +1452,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R19"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3954,23 +3962,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="OPEN">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="OPEN">
       <formula>NOT(ISERROR(SEARCH("OPEN",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="CLOSED">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="CLOSED">
       <formula>NOT(ISERROR(SEARCH("CLOSED",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F18">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3978,19 +3986,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4004,8 +4019,28 @@
         <f>B2&amp;" "&amp;C2&amp;","</f>
         <v>hospital VARCHAR(255),</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>"$"&amp;B2</f>
+        <v>$hospital</v>
+      </c>
+      <c r="G2" t="str">
+        <f>F2&amp;" = "&amp;"$_POST['"&amp;B2&amp;"'];"</f>
+        <v>$hospital = $_POST['hospital'];</v>
+      </c>
+      <c r="I2" t="str">
+        <f>B2&amp;","</f>
+        <v>hospital,</v>
+      </c>
+      <c r="J2" t="str">
+        <f>"'"&amp;F2&amp;"',"</f>
+        <v>'$hospital',</v>
+      </c>
+      <c r="K2" t="str">
+        <f>B2&amp;" = "&amp;"'"&amp;F2&amp;"',"</f>
+        <v>hospital = '$hospital',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -4016,135 +4051,323 @@
         <v>212</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D10" si="0">B3&amp;" "&amp;C3&amp;","</f>
+        <f t="shared" ref="D3:D11" si="0">B3&amp;" "&amp;C3&amp;","</f>
         <v>complaintNo VARCHAR(32),</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F11" si="1">"$"&amp;B3</f>
+        <v>$complaintNo</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G11" si="2">F3&amp;" = "&amp;"$_POST['"&amp;B3&amp;"'];"</f>
+        <v>$complaintNo = $_POST['complaintNo'];</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I11" si="3">B3&amp;","</f>
+        <v>complaintNo,</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J11" si="4">"'"&amp;F3&amp;"',"</f>
+        <v>'$complaintNo',</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K11" si="5">B3&amp;" = "&amp;"'"&amp;F3&amp;"',"</f>
+        <v>complaintNo = '$complaintNo',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>datetime DATETIME,</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>dateRequested DATE,</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>$dateRequested</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>$dateRequested = $_POST['dateRequested'];</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="3"/>
+        <v>dateRequested,</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="4"/>
+        <v>'$dateRequested',</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="5"/>
+        <v>dateRequested = '$dateRequested',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>$timeRequested</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>$timeRequested = $_POST['timeRequested'];</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>timeRequested,</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="4"/>
+        <v>'$timeRequested',</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="5"/>
+        <v>timeRequested = '$timeRequested',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>220</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>211</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>reference VARCHAR(255),</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>$reference</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>$reference = $_POST['reference'];</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>reference,</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="4"/>
+        <v>'$reference',</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="5"/>
+        <v>reference = '$reference',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>223</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>211</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>complaintDetails VARCHAR(255),</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>$complaintDetails</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>$complaintDetails = $_POST['complaintDetails'];</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>complaintDetails,</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="4"/>
+        <v>'$complaintDetails',</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="5"/>
+        <v>complaintDetails = '$complaintDetails',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>184</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>211</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>actionTaken VARCHAR(255),</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>$actionTaken</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>$actionTaken = $_POST['actionTaken'];</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>actionTaken,</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="4"/>
+        <v>'$actionTaken',</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="5"/>
+        <v>actionTaken = '$actionTaken',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>221</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>224</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>name VARCHAR(64),</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>$name</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>$name = $_POST['name'];</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>name,</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="4"/>
+        <v>'$name',</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="5"/>
+        <v>name = '$name',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>188</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>dateCompleted DATE,</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>$dateCompleted</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>$dateCompleted = $_POST['dateCompleted'];</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>dateCompleted,</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v>'$dateCompleted',</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="5"/>
+        <v>dateCompleted = '$dateCompleted',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>214</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>status VARCHAR(16),</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>$status</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>$status = $_POST['status'];</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>status,</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="4"/>
+        <v>'$status',</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="5"/>
+        <v>status = '$status',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="OPEN">
-      <formula>NOT(ISERROR(SEARCH("OPEN",A5)))</formula>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="OPEN">
+      <formula>NOT(ISERROR(SEARCH("OPEN",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="CLOSED">
-      <formula>NOT(ISERROR(SEARCH("CLOSED",A5)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="CLOSED">
+      <formula>NOT(ISERROR(SEARCH("CLOSED",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="PENDING">
-      <formula>NOT(ISERROR(SEARCH("PENDING",A5)))</formula>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="PENDING">
+      <formula>NOT(ISERROR(SEARCH("PENDING",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="PENDING">
-      <formula>NOT(ISERROR(SEARCH("PENDING",A5)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PENDING">
+      <formula>NOT(ISERROR(SEARCH("PENDING",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
